--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/virus-on-mac/Reserve/Repos/coloss_austria_geocoder/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7DA54-03C2-7F40-B2E8-D014A9B1EE7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E26D1-73A0-5645-AE0B-5CEA5C0BBD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="2300" windowWidth="27840" windowHeight="17060" xr2:uid="{958D124C-9509-4246-BD4C-E57BC3583497}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
